--- a/doc/TODO.xlsx
+++ b/doc/TODO.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
+    <workbookView xWindow="0" yWindow="2417" windowWidth="10474" windowHeight="9137"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>AFECTA A:</t>
   </si>
@@ -30,9 +31,6 @@
     <t>Inicio de la aplicación Vista</t>
   </si>
   <si>
-    <t>Implementar en la fila de casos por revisar que aparecen en el inicio de la aplicación</t>
-  </si>
-  <si>
     <t>HECHO</t>
   </si>
   <si>
@@ -45,12 +43,6 @@
     <t>Busqueda Casos Vista</t>
   </si>
   <si>
-    <t>Mostrar un mensaje de error si el número de resultado excede al máximo del configurado. Mostrar tambén númrero de resultados obtenidos y máximos</t>
-  </si>
-  <si>
-    <t>PARCIALMENTE</t>
-  </si>
-  <si>
     <t>Borrar el campo oculto que envía la información con el código de enfermedad al borrar el campo autocompletado de enfermedad buscada</t>
   </si>
   <si>
@@ -72,9 +64,6 @@
     <t>Hay que incorporar mapeo gonzalo de enfraras</t>
   </si>
   <si>
-    <t>Redactar el proceso de edición y mapeo</t>
-  </si>
-  <si>
     <t>Interviene</t>
   </si>
   <si>
@@ -88,6 +77,27 @@
   </si>
   <si>
     <t>Ricardo, Gonzalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración </t>
+  </si>
+  <si>
+    <t>Que se muestre SOLAMANETE a administradores la pestaña de administración</t>
+  </si>
+  <si>
+    <t>Cuando no haya casos para revisar que no se muestre la tabla</t>
+  </si>
+  <si>
+    <t>Implementar tabla de casos, por revisar, que aparecen en el inicio de la aplicación.</t>
+  </si>
+  <si>
+    <t>Mostrar un mensaje de error si el número de resultado excede al máximo del configurado. Mostrar tambén númerero de resultados obtenidos y máximos</t>
+  </si>
+  <si>
+    <t>Redactar el proceso de edición y mapeo de enfermedades</t>
+  </si>
+  <si>
+    <t>Pequeño saludo al usuario</t>
   </si>
 </sst>
 </file>
@@ -103,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,11 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -482,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
@@ -490,13 +507,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
@@ -504,97 +521,136 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
